--- a/document/QA/PMTestCase.xlsx
+++ b/document/QA/PMTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\BlackPotion\document\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EACF07-BEF7-49ED-B6C0-76255A583B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A90877-9794-4923-B9C0-35E1AB829B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="타이틀 화면 " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="267">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -865,6 +865,131 @@
   </si>
   <si>
     <t>TC-97</t>
+  </si>
+  <si>
+    <t>포션 제조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-30</t>
+  </si>
+  <si>
+    <t>TC-31</t>
+  </si>
+  <si>
+    <t>TC-32</t>
+  </si>
+  <si>
+    <t>TC-33</t>
+  </si>
+  <si>
+    <t>TC-34</t>
+  </si>
+  <si>
+    <t>재료 투입 수치 랜덤성</t>
+  </si>
+  <si>
+    <t>무료 리필 횟수 소모</t>
+  </si>
+  <si>
+    <t>재료 최대 투입량 초과 체크</t>
+  </si>
+  <si>
+    <t>요구 용량 충족 여부 판단</t>
+  </si>
+  <si>
+    <t>제조 결과 화면 표기</t>
+  </si>
+  <si>
+    <t>제조 결과 제출 후 보상 확인</t>
+  </si>
+  <si>
+    <t>다시 제작하기 동작</t>
+  </si>
+  <si>
+    <t>예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 마우스 오버 반응</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 수치 리필 후 리필 시도</t>
+  </si>
+  <si>
+    <t>투입 없이 제조 시도</t>
+  </si>
+  <si>
+    <t>의뢰 등급(소/중/대)에 따른 무료 리필 횟수(0/1/2)만큼 수치 리필 시도</t>
+  </si>
+  <si>
+    <t>물/허브 중 한 재료라도 최대 수치를 초과해 투입</t>
+  </si>
+  <si>
+    <t>제조 완료 후 결과 화면 확인</t>
+  </si>
+  <si>
+    <t>결과 확인 후 ‘제출하기’ 클릭 시 처리 확인</t>
+  </si>
+  <si>
+    <t>투입기 상단 재료 아이콘에 마우스 오버</t>
+  </si>
+  <si>
+    <t>제조 완료 후 “다시 제작하기” 클릭</t>
+  </si>
+  <si>
+    <t>리필 횟수 모두 소진 후 추가 리필 시도</t>
+  </si>
+  <si>
+    <t>아무 수치도 투입하지 않은 상태에서 “포션 제조” 버튼 클릭</t>
+  </si>
+  <si>
+    <t>투입 버튼 클릭 시 무작위 수치(1~10) 투입 → 동일 숫자 재등장 없이 모두 소모될 때까지 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 숫자가 중복되지 않고 무작위 수치로 1~10 모두 사용될 때까지 반복됨</t>
+  </si>
+  <si>
+    <t>제조 결과가 F 등급, 무조건 실패 처리 / "의뢰 실패" 출력 / 위약금 발생</t>
+  </si>
+  <si>
+    <t>요구 범위 내 충족 시 의뢰 성공, 미만 시 실패, 등급은 실제 제조 수치에 비례함</t>
+  </si>
+  <si>
+    <t>골드 50G 차감되고 같은 퀘스트에 대해 다시 제조 시작됨</t>
+  </si>
+  <si>
+    <t>제조 결과가 무조건 F등급으로 표기되며 의뢰 실패 처리됨</t>
+  </si>
+  <si>
+    <t>무료 횟수 내에서는 골드 차감 없이 리필되고, 이후부터는 골드 보유 시 10G 차감됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 요구 용량을 이상 or 미만으로 제조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 등급, 제조 용량 수치, 사용한 재료 총수량, “제작 등급” UI에 표시됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 성공 시 골드/레시피 선택 UI 표시, 실패 시 위약금 골드 보상의 10% 발생 및 실패 사운드 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 재료 이름이 툴팁으로 노출됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료별로 전부 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 10G가 차감되고 추가 투입이 가능해짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1043,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,6 +1226,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,8 +1265,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,28 +1296,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1514,10 +1642,10 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1547,8 +1675,8 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1576,8 +1704,8 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1603,8 +1731,8 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1632,8 +1760,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1661,7 +1789,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1818,7 @@
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1721,10 +1849,10 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1752,8 +1880,8 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1779,7 +1907,7 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1808,8 +1936,8 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="29" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1837,8 +1965,8 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1864,7 +1992,7 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
@@ -1893,8 +2021,8 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="29" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1922,8 +2050,8 @@
       <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
@@ -1953,8 +2081,8 @@
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1980,7 +2108,7 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
@@ -2008,10 +2136,10 @@
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="5" t="s">
         <v>112</v>
       </c>
@@ -2020,10 +2148,10 @@
       <c r="B26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="13" t="s">
         <v>128</v>
       </c>
@@ -2032,10 +2160,10 @@
       <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="12" t="s">
         <v>127</v>
       </c>
@@ -2044,10 +2172,10 @@
       <c r="B28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="13" t="s">
         <v>126</v>
       </c>
@@ -2138,10 +2266,10 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="29" t="s">
         <v>109</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2169,8 +2297,8 @@
       <c r="C6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5" t="s">
         <v>163</v>
       </c>
@@ -2196,8 +2324,8 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5" t="s">
         <v>164</v>
       </c>
@@ -2223,8 +2351,8 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="27"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="5" t="s">
         <v>165</v>
       </c>
@@ -2250,8 +2378,8 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5" t="s">
         <v>166</v>
       </c>
@@ -2277,8 +2405,8 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="5" t="s">
         <v>167</v>
       </c>
@@ -2306,8 +2434,8 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -2335,8 +2463,8 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2354,8 +2482,8 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2373,8 +2501,8 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2392,8 +2520,8 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2411,8 +2539,8 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="5"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2427,10 +2555,10 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="5" t="s">
         <v>112</v>
       </c>
@@ -2439,30 +2567,30 @@
       <c r="C19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="3:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="13"/>
     </row>
   </sheetData>
@@ -2492,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2501,8 +2629,8 @@
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="7" max="7" width="94.25" customWidth="1"/>
-    <col min="8" max="8" width="42.625" customWidth="1"/>
+    <col min="7" max="7" width="83" customWidth="1"/>
+    <col min="8" max="8" width="72" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="44.875" customWidth="1"/>
   </cols>
@@ -2547,11 +2675,21 @@
       <c r="C5" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>255</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>184</v>
       </c>
@@ -2559,7 +2697,7 @@
         <v>119</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -2568,19 +2706,25 @@
       <c r="C6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>260</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>51</v>
+      <c r="J6" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -2589,19 +2733,25 @@
       <c r="C7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>256</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
+      <c r="J7" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -2610,11 +2760,17 @@
       <c r="C8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>184</v>
       </c>
@@ -2622,7 +2778,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -2631,11 +2787,17 @@
       <c r="C9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>262</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>184</v>
       </c>
@@ -2643,20 +2805,26 @@
         <v>51</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>263</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>184</v>
       </c>
@@ -2664,7 +2832,7 @@
         <v>50</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
@@ -2673,19 +2841,25 @@
       <c r="C11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>258</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>184</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -2694,11 +2868,19 @@
       <c r="C12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>264</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>184</v>
       </c>
@@ -2706,7 +2888,9 @@
         <v>51</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="14" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -2715,11 +2899,19 @@
       <c r="C13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>266</v>
+      </c>
       <c r="I13" s="5" t="s">
         <v>184</v>
       </c>
@@ -2727,7 +2919,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -2736,36 +2928,42 @@
       <c r="C14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>184</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
     </row>
@@ -2773,18 +2971,18 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
     </row>
@@ -2792,18 +2990,18 @@
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
     </row>
@@ -2811,18 +3009,18 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
     </row>
@@ -2830,18 +3028,18 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="7"/>
       <c r="L19" s="17"/>
     </row>
@@ -2849,10 +3047,10 @@
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="5" t="s">
         <v>112</v>
       </c>
@@ -2861,44 +3059,43 @@
       <c r="C22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="E5:E9"/>
     <mergeCell ref="D5:D19"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -2976,9 +3173,9 @@
       <c r="C5" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
@@ -2997,9 +3194,9 @@
       <c r="C6" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
@@ -3018,9 +3215,9 @@
       <c r="C7" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
@@ -3039,9 +3236,9 @@
       <c r="C8" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
@@ -3060,9 +3257,9 @@
       <c r="C9" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
@@ -3081,8 +3278,8 @@
       <c r="C10" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -3102,8 +3299,8 @@
       <c r="C11" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -3123,8 +3320,8 @@
       <c r="C12" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -3144,10 +3341,10 @@
       <c r="C13" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
         <v>149</v>
@@ -3165,10 +3362,10 @@
       <c r="C14" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
         <v>38</v>
@@ -3186,8 +3383,8 @@
       <c r="C15" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -3207,8 +3404,8 @@
       <c r="C16" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -3228,8 +3425,8 @@
       <c r="C17" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -3249,8 +3446,8 @@
       <c r="C18" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3270,8 +3467,8 @@
       <c r="C19" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -3291,8 +3488,8 @@
       <c r="C20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -3312,8 +3509,8 @@
       <c r="C21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -3333,8 +3530,8 @@
       <c r="C22" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -3351,10 +3548,10 @@
       <c r="C24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="5" t="s">
         <v>156</v>
       </c>
@@ -3363,45 +3560,45 @@
       <c r="C25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E16:E22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D5:D22"/>
     <mergeCell ref="E5:E15"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E16:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -3478,9 +3675,9 @@
       <c r="C5" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="40"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
@@ -3499,9 +3696,9 @@
       <c r="C6" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
@@ -3520,9 +3717,9 @@
       <c r="C7" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
@@ -3541,9 +3738,9 @@
       <c r="C8" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
@@ -3562,9 +3759,9 @@
       <c r="C9" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
@@ -3583,8 +3780,8 @@
       <c r="C10" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -3604,8 +3801,8 @@
       <c r="C11" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -3625,8 +3822,8 @@
       <c r="C12" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -3646,9 +3843,9 @@
       <c r="C13" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="17"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
@@ -3667,10 +3864,10 @@
       <c r="C14" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
         <v>184</v>
@@ -3688,8 +3885,8 @@
       <c r="C15" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -3709,8 +3906,8 @@
       <c r="C16" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -3730,8 +3927,8 @@
       <c r="C17" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -3751,8 +3948,8 @@
       <c r="C18" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3772,8 +3969,8 @@
       <c r="C19" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -3793,8 +3990,8 @@
       <c r="C20" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -3814,8 +4011,8 @@
       <c r="C21" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -3835,8 +4032,8 @@
       <c r="C22" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -3853,10 +4050,10 @@
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="5" t="s">
         <v>112</v>
       </c>
@@ -3865,24 +4062,24 @@
       <c r="C25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
     </row>
   </sheetData>
@@ -3912,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730FFA4-3C29-42D1-9EB9-FB2B865ADDF5}">
   <dimension ref="A4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3970,9 +4167,9 @@
       <c r="C5" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
@@ -3991,9 +4188,9 @@
       <c r="C6" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
@@ -4012,9 +4209,9 @@
       <c r="C7" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
@@ -4033,9 +4230,9 @@
       <c r="C8" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
@@ -4054,9 +4251,9 @@
       <c r="C9" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
@@ -4075,8 +4272,8 @@
       <c r="C10" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -4096,8 +4293,8 @@
       <c r="C11" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -4117,8 +4314,8 @@
       <c r="C12" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -4138,9 +4335,9 @@
       <c r="C13" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="17"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
@@ -4159,9 +4356,9 @@
       <c r="C14" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="40"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="17"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
@@ -4180,8 +4377,8 @@
       <c r="C15" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -4201,8 +4398,8 @@
       <c r="C16" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -4222,8 +4419,8 @@
       <c r="C17" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -4243,8 +4440,8 @@
       <c r="C18" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -4264,8 +4461,8 @@
       <c r="C19" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -4285,8 +4482,8 @@
       <c r="C20" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -4306,8 +4503,8 @@
       <c r="C21" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -4327,8 +4524,8 @@
       <c r="C22" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -4345,10 +4542,10 @@
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="5" t="s">
         <v>112</v>
       </c>
@@ -4357,24 +4554,24 @@
       <c r="C25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13"/>
     </row>
   </sheetData>

--- a/document/QA/PMTestCase.xlsx
+++ b/document/QA/PMTestCase.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\BlackPotion\document\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A90877-9794-4923-B9C0-35E1AB829B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0AE7F6-EA4B-454E-A94B-5629E63942D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="타이틀 화면 " sheetId="1" r:id="rId1"/>
-    <sheet name="의뢰 게시판" sheetId="2" r:id="rId2"/>
-    <sheet name="포션 제조" sheetId="5" r:id="rId3"/>
-    <sheet name="버프 효과 " sheetId="6" r:id="rId4"/>
-    <sheet name="레시피 " sheetId="9" r:id="rId5"/>
-    <sheet name="게임 진행 흐름 및 상태 관리 " sheetId="8" r:id="rId6"/>
+    <sheet name="의뢰 게시판" sheetId="2" r:id="rId1"/>
+    <sheet name="포션 제조" sheetId="5" r:id="rId2"/>
+    <sheet name="버프 효과 " sheetId="6" r:id="rId3"/>
+    <sheet name="레시피 " sheetId="9" r:id="rId4"/>
+    <sheet name="게임 진행 흐름 및 상태 관리 " sheetId="8" r:id="rId5"/>
+    <sheet name="타이틀, 메뉴 및 시스템" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="237">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,67 +111,6 @@
     <t>TC-14</t>
   </si>
   <si>
-    <t>캐릭터
-생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값
-유효성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 닉네임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 반응</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 입력칸에 비운 상태에서 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미 있는 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수문자 포함된 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상적인 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스터마이징</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유료 옵션 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터로 생성 시 환생 캐릭터 전용 커스터마이징 항목이 노출되지 않거나 선택 불가한지 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 옵션은 비활성화되거나 잠금 표시가 되어 선택 불가능해야 함</t>
-  </si>
-  <si>
-    <t>추가로 경고 메시지가 있으면 더 좋을 것 같다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -184,234 +123,16 @@
     <t>TC-17</t>
   </si>
   <si>
-    <t>1자 닉네임 입력 후 생성 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13자 이상 닉네임 입력후 생성 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복된 닉네임이라는 경고 메시지를 출력하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임을 입력하라는 경고 메시지 또는 시각적 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 입력 길이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 입력 길이 초과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 정상적으로 생성되고, 캐릭터 선택 화면으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>만들기 -&gt; 게임시작을 눌러야 중복여부 체크가 되는데 중복되지않으면 생성되는게 아니라 별다른 동작없이 바로 확인이 가능하면 좋을 것 같다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 메시지와 함께 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수문자 및 입력불가 단어 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 메시지를 출력하며 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 UI 표시되며, 닉네임 설정 단계로 넘어갈 수 없다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건너뛰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 화면으로 되돌아온다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷 씬 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 화면을 길게 눌러 컷씬 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중단 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 종료후 재접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드 메시지 안내에 맞는 키를 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 안내에 맞는 입력을 수행하면 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭 반응</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드 안내에 따라 UI 버튼을 클릭한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상 반응하며 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료후 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 진행 중 앱 강제 종료후 재접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷신이 종료되고 다음 단계로 넘어간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 진행된 곳 혹은 체크 포인트에서부터 재진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드하는 버튼외에 다른 키를 입력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행에 막힘없이 단계 유지/무시 처리한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드 버튼 외 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구역 이탈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 구역 외벽 방향 이동을 시도한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽막힘으로 이동 불가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>정상적으로 티르코네일 마을에 진입하며 인게임 UI가 정상적으로 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼을 모두 완료하고 컷신을 스킵하거나 모두 플레이한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 상황</t>
-  </si>
-  <si>
-    <t>아무 입력 없이 몬스터에게 공격을 받아 사망</t>
-  </si>
-  <si>
-    <t>사망 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 후 재시작하거나 사망에 관계없이 다음 단계를 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽으면 즉시 부활하며, 자동으로 공격하는 상태가된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이 힌트 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이 힌트 시작후 나중에 보기 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈을 지나친다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 맵으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 메시지 '2자 이상 입력해주세요'가 표기되며, 입력칸이 진동하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초과 입력시 경고 메시지가 표기되며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 거부된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jira No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMQA-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탈이 아닌 영역으로 걸어도 포탈이 이동되는 효과를 갖는다. (포탈 위치한 X축 경계를 넘으면 이동됨)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,18 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>포탈이 아닌공간에서 포탈 이동 효과(MMQA-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1자리 닉네임 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 종료후 티르코네일 진입이 안됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -895,108 +604,262 @@
     <t>재료 최대 투입량 초과 체크</t>
   </si>
   <si>
+    <t>제조 결과 제출 후 보상 확인</t>
+  </si>
+  <si>
+    <t>다시 제작하기 동작</t>
+  </si>
+  <si>
+    <t>예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 마우스 오버 반응</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 수치 리필 후 리필 시도</t>
+  </si>
+  <si>
+    <t>투입 없이 제조 시도</t>
+  </si>
+  <si>
+    <t>의뢰 등급(소/중/대)에 따른 무료 리필 횟수(0/1/2)만큼 수치 리필 시도</t>
+  </si>
+  <si>
+    <t>물/허브 중 한 재료라도 최대 수치를 초과해 투입</t>
+  </si>
+  <si>
+    <t>결과 확인 후 ‘제출하기’ 클릭 시 처리 확인</t>
+  </si>
+  <si>
+    <t>투입기 상단 재료 아이콘에 마우스 오버</t>
+  </si>
+  <si>
+    <t>제조 완료 후 “다시 제작하기” 클릭</t>
+  </si>
+  <si>
+    <t>리필 횟수 모두 소진 후 추가 리필 시도</t>
+  </si>
+  <si>
+    <t>아무 수치도 투입하지 않은 상태에서 “포션 제조” 버튼 클릭</t>
+  </si>
+  <si>
+    <t>투입 버튼 클릭 시 무작위 수치(1~10) 투입 → 동일 숫자 재등장 없이 모두 소모될 때까지 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 숫자가 중복되지 않고 무작위 수치로 1~10 모두 사용될 때까지 반복됨</t>
+  </si>
+  <si>
+    <t>제조 결과가 무조건 F등급으로 표기되며 의뢰 실패 처리됨</t>
+  </si>
+  <si>
+    <t>무료 횟수 내에서는 골드 차감 없이 리필되고, 이후부터는 골드 보유 시 10G 차감됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 성공 시 골드/레시피 선택 UI 표시, 실패 시 위약금 골드 보상의 10% 발생 및 실패 사운드 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 재료 이름이 툴팁으로 노출됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료별로 전부 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 10G가 차감되고 추가 투입이 가능해짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창모드 전체화면으로 실행됨, 전체화면으로 할거면 전체화면으로하고 아니면 창모드로 실행되도록 해야함</t>
+  </si>
+  <si>
+    <t>게임 시작 메뉴에서 핀의 끝이 보임, 핀이 박혀있는 효과를 노린거면 핀의 끝이 보이면 안됨</t>
+  </si>
+  <si>
+    <t>환경설정 슬라이더 조절 시 개발자 콘솔이 뜨면서 경고문 뜸, 기능구현할때 뭔가 잘못된듯</t>
+  </si>
+  <si>
+    <t>레시피 선택 화면에서 게임 시작 버튼이 바닥과 붙어 있음, 살짝 위로 띄우는 걸 추천, 중앙 가운데로 옮기는 것도 좋아보임(이 부분은 알아서 판단)</t>
+  </si>
+  <si>
+    <t>환경설정에서 배경음 및 효과음 슬라이더에 방향키(좌우)로 조절할 수 있음, 또한 방향키(상하)는 누를때마다 화면 선택 가능한 모든 오브젝트를 순회 선택하는 것으로 보임, 해당 부분은 방향키의 입력을 아예 막는 것이 좋아보임</t>
+  </si>
+  <si>
+    <t>상점 화면에서 상점이 뜨면 뒷부분이 반투명 검은 하이라이트 효과가 필요함, 포션 결과 화면에서 재료 디스펜서의 버튼이 활성화 되어있음</t>
+  </si>
+  <si>
+    <t>도구함에서 아이템 사용 시 취소 기능이 존재하지 않음, 도구함에서 아이템 사용 시에 아이템을 클릭하면 되듯이 취소도 아이템을 클릭하여 푸는 방식이 좋아보임</t>
+  </si>
+  <si>
+    <t>정산 결과서 화면에서 영수증의 글씨가 쓰여질때 오디오관련 부분에서 오류가 나는 것으로 보임(개발자 콘솔이 뜸)</t>
+  </si>
+  <si>
+    <t>레시피 상점 화면에서도 도구함을 열어 아이템을 사용할 수 있는 것으로 보임(이는 도구함을 열수만 있으면 다 해당되어 보임), 다만 사용 시점은 재료 투입 시점이라 활성화된 채로 유지됨</t>
+  </si>
+  <si>
+    <t>레시피 상점 화면에서도 뒷부분에 반투명 검은 하이라이트가 필요해보임, 정산 결과서의 다음 버튼이 활성화 되어 있어 해당 버튼을 클릭시 레시피 상점 화면이 겹쳐서 나타남</t>
+  </si>
+  <si>
+    <t>게임 진행 중(포션 제조 화면) 설정을 통해 타이틀 화면으로 가고 다시 이어하기 진행 시 개발자 콘솔에서 메세지가 뜸, 또한 기존에 넣어놨던 재료의 투입이 없던 것으로 되며 멈췄던 의뢰의 제조 시작 부분으로 넘어가는 듯함, 이는 제조 설공할때까지 무한 리트가 가능한듯, 아이템의 사용도 무효화되며 골드는 재료 수급했을 시 사용된 이후 금액이 넘어감(시작시 36골드 였어도 재료 수급해서 26골드가 됬으면 이어하기 시작 시 26골드로 시작)</t>
+  </si>
+  <si>
+    <t>이상한 양조기 아이템 사용시 마나석 재료 투입량의 표기가 변경되지 않는 오류, 포션 제조 결과의 합과 변경된 재료 투입량의 합이 맞지 않으며 물의 표기는 변경이 되나 마나석은 변경되지 않았기에 마나석의 오류라고 작성</t>
+  </si>
+  <si>
+    <t>기능개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 달성 금액을 모으지 못 했을 경우 타이틀 메뉴가 아닌 레시피 선택화면으로 넘어감, 해당 부분은 레시피 선택화면보단 타이틀 화면으로 넘어가는 것이 맞아보이며 해당 경우에는 이어하기는 초기화를 고려해봐야할 듯, 또한 지금이 몇 일 차인지 날짜확인 ui가 필요해보임</t>
+  </si>
+  <si>
+    <t>이상한 양조기의 사용 조건 체크 필요, 투입된 재료의 양 상관 없이 작동해야하나 현재는 재료가 오버되거나 투입되지 않은 경우에는 작동하지 않는 것으로 보임</t>
+  </si>
+  <si>
+    <t>홀짝 사용 시에 예를 들어 1 ~ 10 중 5만 남은 상태에서 짝수 버프를 사용하고 투입 시 4가 들어감 같은 경우가 의도된 것인지 아닌지</t>
+  </si>
+  <si>
+    <t>포션 제조 성공 리워드 보상과 정산 결과서의 금액이 일치하는 지 확인이 필요함</t>
+  </si>
+  <si>
+    <t>레시피 선택 화면에서 랙의 끝부분과 레시피의 끝 간격이 맞지 않음, 좌측이 더 짧고 우측이 더 김</t>
+  </si>
+  <si>
+    <t>특정 경우(일차 넘어가는 경우인걸로 추측), 의뢰 수락 후에도 의뢰 카드가 화면에 남아 시각적 혼동 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 경우(일차 넘어가는 경우인걸로 추측),의뢰 선택 화면에서 일부 레시피들이 서로 겹쳐서 표기됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 선택 화면에서 양피지 텍스처가 구버전(실사)로 되어있음, 바뀐 신버전(카툰느낌)으로 바꿔야함, 다른 화면에서도 동일 실수가 보이기에 전체적으로 재확인이 필요해보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 타이틀 뒤의 이미지(포션,레시피)가 너무 작아보임, 살짝 키워햐 할 듯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 선택 화면에서 최대로 받아도 수락은 되지않지만 여전히 수락버튼이 활성화 되어있음, 비활성화 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료를 투입 후 스페이스바로도 투입됨</t>
+  </si>
+  <si>
+    <t>투입이 제한되며, 투입 현황이 빨간색으로 변한다. 제조 결과가 F 등급, 무조건 실패 처리 / "의뢰 실패" 출력 / 위약금 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 화면에서 위약금이 소수점까지 표기됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 화면에서 ‘다시 제작하기’ 버튼이 금화 이미지 클릭으로도 작동</t>
+  </si>
+  <si>
+    <t>TC-35</t>
+  </si>
+  <si>
+    <t>재료 수치 인포 오버 반응</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입기의 물음표 아이콘에 마우스 오버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1~10 중 투입된 숫자는 어둡게, 미투입 숫자는 밝게 표시됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 수치 인포(?아이콘)에서 마지막 숫자 10이 네모칸을 넘어가며, 물음표 아이콘은 버튼이 아님에도 클릭 시 하이라이트됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 요구량이 넘어갔음에도 빨간색으로 변경되지 않으며 투입 버튼 비활성화가 표시되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-62</t>
+  </si>
+  <si>
+    <t>재료 투입 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스펜서의 투입 버튼을 눌러 재료를 투입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료가 무작위 수치로 투입되며 수치만큼 재료 이미지가 밑으로 떨어지는 이펙트를 출력한다, 투입 현황이 그에맞게 업데이트 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르게 반복 클릭할 경우, 재료 투입은 정상 처리되나 이펙트가 일부 출력되지 않는 현상 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SYII-67
+</t>
+  </si>
+  <si>
+    <t>SYII-68</t>
+  </si>
+  <si>
+    <t>SYII-69</t>
+  </si>
+  <si>
+    <t>간혈적으로 성공 조건임에도 실패하는 경우 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>요구 용량 충족 여부 판단</t>
-  </si>
-  <si>
-    <t>제조 결과 화면 표기</t>
-  </si>
-  <si>
-    <t>제조 결과 제출 후 보상 확인</t>
-  </si>
-  <si>
-    <t>다시 제작하기 동작</t>
-  </si>
-  <si>
-    <t>예외 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료 마우스 오버 반응</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 수치 리필 후 리필 시도</t>
-  </si>
-  <si>
-    <t>투입 없이 제조 시도</t>
-  </si>
-  <si>
-    <t>의뢰 등급(소/중/대)에 따른 무료 리필 횟수(0/1/2)만큼 수치 리필 시도</t>
-  </si>
-  <si>
-    <t>물/허브 중 한 재료라도 최대 수치를 초과해 투입</t>
-  </si>
-  <si>
-    <t>제조 완료 후 결과 화면 확인</t>
-  </si>
-  <si>
-    <t>결과 확인 후 ‘제출하기’ 클릭 시 처리 확인</t>
-  </si>
-  <si>
-    <t>투입기 상단 재료 아이콘에 마우스 오버</t>
-  </si>
-  <si>
-    <t>제조 완료 후 “다시 제작하기” 클릭</t>
-  </si>
-  <si>
-    <t>리필 횟수 모두 소진 후 추가 리필 시도</t>
-  </si>
-  <si>
-    <t>아무 수치도 투입하지 않은 상태에서 “포션 제조” 버튼 클릭</t>
-  </si>
-  <si>
-    <t>투입 버튼 클릭 시 무작위 수치(1~10) 투입 → 동일 숫자 재등장 없이 모두 소모될 때까지 반복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 숫자가 중복되지 않고 무작위 수치로 1~10 모두 사용될 때까지 반복됨</t>
-  </si>
-  <si>
-    <t>제조 결과가 F 등급, 무조건 실패 처리 / "의뢰 실패" 출력 / 위약금 발생</t>
-  </si>
-  <si>
-    <t>요구 범위 내 충족 시 의뢰 성공, 미만 시 실패, 등급은 실제 제조 수치에 비례함</t>
-  </si>
-  <si>
-    <t>골드 50G 차감되고 같은 퀘스트에 대해 다시 제조 시작됨</t>
-  </si>
-  <si>
-    <t>제조 결과가 무조건 F등급으로 표기되며 의뢰 실패 처리됨</t>
-  </si>
-  <si>
-    <t>무료 횟수 내에서는 골드 차감 없이 리필되고, 이후부터는 골드 보유 시 10G 차감됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰 요구 용량을 이상 or 미만으로 제조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 등급, 제조 용량 수치, 사용한 재료 총수량, “제작 등급” UI에 표시됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의뢰 성공 시 골드/레시피 선택 UI 표시, 실패 시 위약금 골드 보상의 10% 발생 및 실패 사운드 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 재료 이름이 툴팁으로 노출됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료별로 전부 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 10G가 차감되고 추가 투입이 가능해짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 요구 용량을 이상 or 미만으로 제조, 제조 결과 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 범위 내 충족 시 의뢰 성공, 미만 시 실패, 등급은 실제 제조 수치에 비례함 , 포션 등급, 제조 용량 수치, 사용한 재료 총수량, “제작 등급” UI에 표시됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 50G 차감되고 같은 퀘스트에 대해 다시 제조 시작됨, 이미 한경우 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-71</t>
+  </si>
+  <si>
+    <t>SYII-72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +883,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292A2E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1041,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1156,8 +1034,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8C8F97"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8C8F97"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8C8F97"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8C8F97"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,8 +1060,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,15 +1134,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,32 +1173,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - 강조색3" xfId="2" builtinId="38"/>
     <cellStyle name="40% - 강조색4" xfId="1" builtinId="43"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,640 +1488,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:K28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="80.625" customWidth="1"/>
-    <col min="7" max="7" width="95.625" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="130.625" customWidth="1"/>
-    <col min="12" max="15" width="71.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D21"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pass, Fail, N/A, No Run"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"High, Medium, Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2253,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
@@ -2267,54 +1549,58 @@
         <v>9</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="31"/>
       <c r="F6" s="5" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -2327,22 +1613,26 @@
       <c r="D7" s="33"/>
       <c r="E7" s="31"/>
       <c r="F7" s="5" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -2354,21 +1644,21 @@
       <c r="D8" s="33"/>
       <c r="E8" s="31"/>
       <c r="F8" s="5" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -2381,22 +1671,26 @@
       <c r="D9" s="33"/>
       <c r="E9" s="31"/>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -2408,23 +1702,23 @@
       <c r="D10" s="33"/>
       <c r="E10" s="30"/>
       <c r="F10" s="5" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -2436,24 +1730,24 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -2469,10 +1763,10 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -2488,10 +1782,10 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2507,10 +1801,10 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -2526,10 +1820,10 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -2545,52 +1839,54 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="3:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="3:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="3:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="13"/>
     </row>
   </sheetData>
@@ -2612,16 +1908,22 @@
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{AA57D11A-C1CF-4543-B2B8-800656E43809}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{FE10CBCC-3D61-4291-ADF9-32072BE2DB66}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{28529C69-6E9B-4F19-BD1C-B990007FE895}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:L24"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B4:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2632,7 +1934,7 @@
     <col min="7" max="7" width="83" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="44.875" customWidth="1"/>
+    <col min="12" max="12" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -2662,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
@@ -2673,223 +1975,249 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>109</v>
+        <v>156</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>254</v>
+        <v>162</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="38"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>246</v>
+        <v>163</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="38"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>247</v>
+        <v>164</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="38"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>261</v>
+        <v>231</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>248</v>
+        <v>165</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>249</v>
+        <v>166</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="D11" s="35"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>251</v>
+        <v>221</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D12" s="35"/>
-      <c r="E12" s="14" t="s">
-        <v>110</v>
+      <c r="E12" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>250</v>
+        <v>215</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="14" t="s">
-        <v>265</v>
+        <v>29</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -2897,55 +2225,57 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="37" t="s">
-        <v>242</v>
-      </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>252</v>
+        <v>168</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="F14" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>253</v>
+        <v>169</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -2953,37 +2283,43 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="D15" s="35"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="I15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -2991,18 +2327,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -3010,113 +2344,138 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="D22" s="24" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="E22" s="24"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="25"/>
       <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="25"/>
       <c r="F24" s="13"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D22:E22"/>
+  <mergeCells count="10">
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D5:D19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D5:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="E5:E11"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{BF75E2AF-E583-4F77-B40A-9FC2CD6B4E6D}"/>
+    <hyperlink ref="K5" r:id="rId2" display="https://haeseong98.atlassian.net/browse/SYII-67" xr:uid="{37B42DDC-60E2-4A46-B3C9-1BF6B9EC27DC}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{B2A97AD9-EA9F-474E-B98F-2B9207577071}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{72FD885F-76FB-4833-94CF-0F5809B9ED0C}"/>
+    <hyperlink ref="K8" r:id="rId5" xr:uid="{6C6ACB31-5D9A-45A6-84F9-CB7EB3ED164D}"/>
+    <hyperlink ref="K12" r:id="rId6" xr:uid="{EF4AA51D-A731-4893-85FB-36021A532B0A}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{BC580448-4637-4EF1-B880-90F2E94EB64F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:L27"/>
+  <dimension ref="A4:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C22"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3133,56 +2492,56 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+        <v>115</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
@@ -3192,18 +2551,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+        <v>116</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
@@ -3213,18 +2572,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+        <v>117</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
@@ -3234,18 +2593,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
+        <v>118</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
@@ -3255,18 +2614,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -3276,18 +2635,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
+        <v>120</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
@@ -3297,18 +2656,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
+        <v>67</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
@@ -3318,18 +2677,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
@@ -3339,18 +2698,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="40"/>
+        <v>69</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
@@ -3360,18 +2719,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
@@ -3381,18 +2740,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
@@ -3402,18 +2761,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
@@ -3423,18 +2782,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="D17" s="41"/>
       <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
@@ -3444,18 +2803,18 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="D18" s="41"/>
       <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
@@ -3465,18 +2824,18 @@
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
@@ -3486,18 +2845,18 @@
         <v>16</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="D20" s="41"/>
       <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="15"/>
@@ -3507,18 +2866,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
@@ -3528,77 +2887,105 @@
         <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>80</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="5" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="25"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E16:E22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D5:D22"/>
     <mergeCell ref="E5:E15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E16:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -3613,12 +3000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBB317-B39B-4769-895E-465FF52B407B}">
-  <dimension ref="A4:L27"/>
+  <dimension ref="A4:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3659,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
@@ -3667,24 +3054,24 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+        <v>121</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="21"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
@@ -3694,18 +3081,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
@@ -3715,18 +3102,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
@@ -3736,18 +3123,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38"/>
+        <v>123</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
@@ -3757,18 +3144,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38"/>
+        <v>124</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="21"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -3778,18 +3165,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
+        <v>125</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
@@ -3799,18 +3186,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
+        <v>126</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
@@ -3820,18 +3207,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
+        <v>127</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
@@ -3841,18 +3228,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38"/>
+        <v>128</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="21"/>
       <c r="G13" s="17"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
@@ -3862,18 +3249,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38"/>
+        <v>129</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="20"/>
       <c r="G14" s="22"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
@@ -3883,18 +3270,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
@@ -3904,18 +3291,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>131</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
@@ -3925,18 +3312,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="36"/>
+        <v>132</v>
+      </c>
+      <c r="D17" s="41"/>
       <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
@@ -3946,18 +3333,18 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>133</v>
+      </c>
+      <c r="D18" s="41"/>
       <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
@@ -3967,18 +3354,18 @@
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>134</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
@@ -3988,18 +3375,18 @@
         <v>16</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>135</v>
+      </c>
+      <c r="D20" s="41"/>
       <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="15"/>
@@ -4009,18 +3396,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>136</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
@@ -4030,18 +3417,18 @@
         <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>137</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
@@ -4050,37 +3437,62 @@
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4105,12 +3517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730FFA4-3C29-42D1-9EB9-FB2B865ADDF5}">
-  <dimension ref="A4:L27"/>
+  <dimension ref="A4:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4151,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
@@ -4159,24 +3571,24 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+        <v>138</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="19"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
@@ -4186,18 +3598,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38"/>
+        <v>139</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="21"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
@@ -4207,18 +3619,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
+        <v>140</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
@@ -4228,18 +3640,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38"/>
+        <v>141</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="21"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
@@ -4249,18 +3661,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38"/>
+        <v>142</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="21"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -4270,18 +3682,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
+        <v>143</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
@@ -4291,18 +3703,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38"/>
+        <v>144</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
@@ -4312,18 +3724,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="38"/>
+        <v>145</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
@@ -4333,18 +3745,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38"/>
+        <v>146</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="21"/>
       <c r="G13" s="17"/>
       <c r="H13" s="16"/>
       <c r="I13" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="17"/>
@@ -4354,18 +3766,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38"/>
+        <v>147</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="21"/>
       <c r="G14" s="17"/>
       <c r="H14" s="16"/>
       <c r="I14" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
@@ -4375,18 +3787,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
@@ -4396,18 +3808,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>149</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="35"/>
       <c r="F16" s="14"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
@@ -4417,18 +3829,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="36"/>
+        <v>150</v>
+      </c>
+      <c r="D17" s="41"/>
       <c r="E17" s="35"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15"/>
@@ -4438,18 +3850,18 @@
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="36"/>
+        <v>151</v>
+      </c>
+      <c r="D18" s="41"/>
       <c r="E18" s="35"/>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
@@ -4459,18 +3871,18 @@
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>152</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="35"/>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15"/>
@@ -4480,18 +3892,18 @@
         <v>16</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>153</v>
+      </c>
+      <c r="D20" s="41"/>
       <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="15"/>
@@ -4501,18 +3913,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>154</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15"/>
@@ -4522,18 +3934,18 @@
         <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>155</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="35"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="5" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
@@ -4542,37 +3954,57 @@
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4595,4 +4027,510 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:K36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="80.625" customWidth="1"/>
+    <col min="7" max="7" width="95.625" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="130.625" customWidth="1"/>
+    <col min="12" max="15" width="71.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Pass, Fail, N/A, No Run"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/QA/PMTestCase.xlsx
+++ b/document/QA/PMTestCase.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\BlackPotion\document\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0AE7F6-EA4B-454E-A94B-5629E63942D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F4C66-B426-40F2-8040-71002DB8A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="의뢰 게시판" sheetId="2" r:id="rId1"/>
     <sheet name="포션 제조" sheetId="5" r:id="rId2"/>
-    <sheet name="버프 효과 " sheetId="6" r:id="rId3"/>
+    <sheet name="버프" sheetId="6" r:id="rId3"/>
     <sheet name="레시피 " sheetId="9" r:id="rId4"/>
     <sheet name="게임 진행 흐름 및 상태 관리 " sheetId="8" r:id="rId5"/>
     <sheet name="타이틀, 메뉴 및 시스템" sheetId="1" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="355">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,10 +300,6 @@
     <t>TC-50</t>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-51</t>
   </si>
   <si>
@@ -339,19 +335,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본 시스템 흐름을 차단하거나 재화 손실이 명확함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 시 일시적 불편이나 혼동 발생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 빈도가 낮고 재화 손실이 거의 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -675,61 +659,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>창모드 전체화면으로 실행됨, 전체화면으로 할거면 전체화면으로하고 아니면 창모드로 실행되도록 해야함</t>
-  </si>
-  <si>
-    <t>게임 시작 메뉴에서 핀의 끝이 보임, 핀이 박혀있는 효과를 노린거면 핀의 끝이 보이면 안됨</t>
-  </si>
-  <si>
-    <t>환경설정 슬라이더 조절 시 개발자 콘솔이 뜨면서 경고문 뜸, 기능구현할때 뭔가 잘못된듯</t>
-  </si>
-  <si>
-    <t>레시피 선택 화면에서 게임 시작 버튼이 바닥과 붙어 있음, 살짝 위로 띄우는 걸 추천, 중앙 가운데로 옮기는 것도 좋아보임(이 부분은 알아서 판단)</t>
-  </si>
-  <si>
-    <t>환경설정에서 배경음 및 효과음 슬라이더에 방향키(좌우)로 조절할 수 있음, 또한 방향키(상하)는 누를때마다 화면 선택 가능한 모든 오브젝트를 순회 선택하는 것으로 보임, 해당 부분은 방향키의 입력을 아예 막는 것이 좋아보임</t>
-  </si>
-  <si>
-    <t>상점 화면에서 상점이 뜨면 뒷부분이 반투명 검은 하이라이트 효과가 필요함, 포션 결과 화면에서 재료 디스펜서의 버튼이 활성화 되어있음</t>
-  </si>
-  <si>
-    <t>도구함에서 아이템 사용 시 취소 기능이 존재하지 않음, 도구함에서 아이템 사용 시에 아이템을 클릭하면 되듯이 취소도 아이템을 클릭하여 푸는 방식이 좋아보임</t>
-  </si>
-  <si>
-    <t>정산 결과서 화면에서 영수증의 글씨가 쓰여질때 오디오관련 부분에서 오류가 나는 것으로 보임(개발자 콘솔이 뜸)</t>
-  </si>
-  <si>
-    <t>레시피 상점 화면에서도 도구함을 열어 아이템을 사용할 수 있는 것으로 보임(이는 도구함을 열수만 있으면 다 해당되어 보임), 다만 사용 시점은 재료 투입 시점이라 활성화된 채로 유지됨</t>
-  </si>
-  <si>
-    <t>레시피 상점 화면에서도 뒷부분에 반투명 검은 하이라이트가 필요해보임, 정산 결과서의 다음 버튼이 활성화 되어 있어 해당 버튼을 클릭시 레시피 상점 화면이 겹쳐서 나타남</t>
-  </si>
-  <si>
-    <t>게임 진행 중(포션 제조 화면) 설정을 통해 타이틀 화면으로 가고 다시 이어하기 진행 시 개발자 콘솔에서 메세지가 뜸, 또한 기존에 넣어놨던 재료의 투입이 없던 것으로 되며 멈췄던 의뢰의 제조 시작 부분으로 넘어가는 듯함, 이는 제조 설공할때까지 무한 리트가 가능한듯, 아이템의 사용도 무효화되며 골드는 재료 수급했을 시 사용된 이후 금액이 넘어감(시작시 36골드 였어도 재료 수급해서 26골드가 됬으면 이어하기 시작 시 26골드로 시작)</t>
-  </si>
-  <si>
-    <t>이상한 양조기 아이템 사용시 마나석 재료 투입량의 표기가 변경되지 않는 오류, 포션 제조 결과의 합과 변경된 재료 투입량의 합이 맞지 않으며 물의 표기는 변경이 되나 마나석은 변경되지 않았기에 마나석의 오류라고 작성</t>
-  </si>
-  <si>
-    <t>기능개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 달성 금액을 모으지 못 했을 경우 타이틀 메뉴가 아닌 레시피 선택화면으로 넘어감, 해당 부분은 레시피 선택화면보단 타이틀 화면으로 넘어가는 것이 맞아보이며 해당 경우에는 이어하기는 초기화를 고려해봐야할 듯, 또한 지금이 몇 일 차인지 날짜확인 ui가 필요해보임</t>
-  </si>
-  <si>
-    <t>이상한 양조기의 사용 조건 체크 필요, 투입된 재료의 양 상관 없이 작동해야하나 현재는 재료가 오버되거나 투입되지 않은 경우에는 작동하지 않는 것으로 보임</t>
-  </si>
-  <si>
-    <t>홀짝 사용 시에 예를 들어 1 ~ 10 중 5만 남은 상태에서 짝수 버프를 사용하고 투입 시 4가 들어감 같은 경우가 의도된 것인지 아닌지</t>
-  </si>
-  <si>
-    <t>포션 제조 성공 리워드 보상과 정산 결과서의 금액이 일치하는 지 확인이 필요함</t>
-  </si>
-  <si>
-    <t>레시피 선택 화면에서 랙의 끝부분과 레시피의 끝 간격이 맞지 않음, 좌측이 더 짧고 우측이 더 김</t>
-  </si>
-  <si>
     <t>특정 경우(일차 넘어가는 경우인걸로 추측), 의뢰 수락 후에도 의뢰 카드가 화면에 남아 시각적 혼동 발생</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -739,14 +668,6 @@
   </si>
   <si>
     <t>SYII-60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피 선택 화면에서 양피지 텍스처가 구버전(실사)로 되어있음, 바뀐 신버전(카툰느낌)으로 바꿔야함, 다른 화면에서도 동일 실수가 보이기에 전체적으로 재확인이 필요해보임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 화면에서 타이틀 뒤의 이미지(포션,레시피)가 너무 작아보임, 살짝 키워햐 할 듯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -853,6 +774,570 @@
   </si>
   <si>
     <t>SYII-72</t>
+  </si>
+  <si>
+    <t>버프 아이템 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 부족 시 구매</t>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 양조기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가 가루</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버프 상점 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 중복 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드를 충분히 보유한 상태에서 상점 진입,  버프 구매, 확인 팝업 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드가 부족한 상태에서 상점 진입, 버프 구매 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구함 오픈, 짝수 버프 클릭, 투입 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝/홀 정제 버프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조기 강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구함 오픈, 양조기 강화 버프 클릭, 투입 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구함 오픈, 이상한 양조기 버프 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구함 오픈, 증가 가루 버프 클릭, 제조를 완료하여 결과 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구함 오픈, 보유중인 버프 아이템 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰를 완료한 후 버프상점에 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 버프 아이템을 보유한 상태에서, 하나이상 활성화한 후 추가로 활성화 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 도구함에 추가됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매에 실패하며, 골드 부족 팝업을 띄움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10 사이의 짝수 / 홀수 수치 투입됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재료의 투입량이 0 ~ 최대 수로 변경됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입된 수치보다 +1 되어 투입됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조 결과에서 최종 용량이 +5 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화시 어둡게 처리되며, 적용 완료시 도구함에서 삭제됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가능한 버프아이템이 나열되고 상호작용이 가능함, 상점 뒷 화면은 어둡게 블라인드 처리되며 상호작용 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 버프는 활성화 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블라인드 처리되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치 5만 남은 상태에서 짝수 투입 시 짝수가 들어가는데, 의도된 설계인지 확인이 필요 (그대로 5는 투입되었다고 처리됨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 재료는 UI 적용이 안됨, 재료 미투입 혹은 오버시 사용하면 버프 적용이 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-75</t>
+  </si>
+  <si>
+    <t>SYII-76</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-77</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 오브젝트 여러 개 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 화면 배치 및 동작 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫날 레시피 선택화면 진입, 레시피오브젝트, 버튼 동작 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 버튼이 바닥에 너무 붙어 있음,띄우거나 중앙 이동 추천, 레시피 좌 우측 끝간격이 맞지 않음 조정 필요, 레시피 텍스처 잘못 적용됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 상점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 구매 실패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 레시피 매진 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매진 레시피 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 상점 진입, 골드 부족한 상태에서 구매 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 상점 진입 , 골드 충분히 보유한 상태에서 구매 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 구매 후 혹은 레시피를 여러 개 보유한 상태에서 레시피 상점 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 상점 진입, 매진 처리된 레시피를 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 레시피로 등록되며, 매진 처리됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 부족합니다 UI를 팝업하며 구매가 진행되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 / 구매한 레시피가 매진 처리됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가 불가능하며 상호작용시 아무런 반응 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 버튼 클릭 시 1개만 하이라이트 되며, 하이라이트시 게임시작 버튼이 활성화됨, 게임시작 버튼을 누르면 다음 단계로 진입함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 선택이 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 레시피 의뢰 등장 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피 상점에서 레시피를 구매, 다음 날로 이동, 의뢰 게시판 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 게시판에 새로 등록된 레시피 의뢰가 등장함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산 정보 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 의뢰 완료, 정산 단계 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락한 의뢰의 포션이름, 성공 실패 여부, 수익 및 위약금, 목표달성 여부가 맞게 표시됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위약금 및 수익이 실제와 다르게 표기됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산 효과 ,사운드 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산 결과 출력시 타이핑 효과와 타이핑 효과음이 출력된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 소비후 정산 결과 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점, 재료 수급, 재시작에서 골드를 소모함, 정산 단계 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비한 골드는 정산에 포함되지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 미달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 의뢰 완료, 정산 단계 진입, 목표 금액 달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 의뢰 완료, 정산 단계 진입, 목표 금액 미달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드, 레시피 등 정보가 저장되며 다음날 의뢰게시판에 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 정보가 초기화되며 처음 시작할 때처럼 레시피 선택화면(혹은 타이틀화면)으로 진입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜가 UI로 표기되야할 필요가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막으로 저장한 단계부터 이어서 시작한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 저장 / 로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 투입 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입 내역은 저장되지 않으며, 악용 위험이 있어서저장될 필요가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이핑 효과음 출력 안됨, 개발자 콘솔 에러발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 투입후 재시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입 내역이 저장되고 이어서 진행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 활성화후 재시작, 아이템 구매후 재시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 아이템은 재시작후에도 남아 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화 내역은 저장할지는 고민이 필요해보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 상태 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조 단계 의뢰마다, 정산 단계, 골드 사용시, 날짜 변경시 재시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면 / 레시피 선택화면 진입할지 고민해볼 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>이어 하기시 게임이 진행이안되고 먹통이됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭 사운드 및 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 환경 설정 UI 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 화면 전환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 사이즈 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 
+화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 게임 시작버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 초기화 되고 의뢰게시판으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 게임 종료 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 종료되어 창이 닫힌다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 환경 설정 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 UI가 팝업된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면 진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에 맞는 배경음이 반복 재생된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면에서 4종류 버튼을 클릭한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 버튼 클릭 시 도장 찍는 이펙트와 사운드가 출력된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연타 시 사운드가 두번 출력됨, 도장이 위에서 아래로 슬라이드되는 애니메이션보다 한번에 나오면 더 좋을 것 같다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 상단의 메뉴 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 상단의 메뉴 버튼 클릭 후 메인 메뉴 이동 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면으로 이동된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Enter 키를 입력하여 전체 화면 전환 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무런 반응이 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 테두리를 잡아 끌어서 늘리기를 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 변경 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 효과음/ 배경음 슬라이더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 버튼으로 환경 설정 창 진입, 효과음 / 배경음 탭의 슬라이더를 움직여 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절한 양만큼 볼륨이 변경된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-18</t>
+  </si>
+  <si>
+    <t>환경설정 슬라이더 조절 시 개발자 콘솔이 뜨면서 경고문 뜸, 기능구현할때 뭔가 잘못된듯 하다, 배경음 / 효과음 슬라이더에 방향키(좌우)로 조절할 수 있음, 방향키(상하)는 누를때마다 화면 선택 가능한 모든 오브젝트를 순회 선택하므로, 해당 부분은 방향키의 입력을 아예 막는 것이 좋아보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYII-87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -919,7 +1404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -943,51 +1428,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1064,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,134 +1520,137 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1493,8 +1939,8 @@
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1548,20 +1994,20 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>88</v>
+      <c r="D5" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
@@ -1569,11 +2015,11 @@
       <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>205</v>
+      <c r="K5" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1581,18 +2027,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
@@ -1601,7 +2047,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -1610,16 +2056,16 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
@@ -1627,11 +2073,11 @@
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>204</v>
+      <c r="K7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,16 +2087,16 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>107</v>
+        <v>88</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>23</v>
@@ -1659,7 +2105,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -1668,16 +2114,16 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
@@ -1685,11 +2131,11 @@
       <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>209</v>
+      <c r="K9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -1699,16 +2145,16 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
@@ -1717,8 +2163,8 @@
         <v>27</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="7" t="s">
-        <v>112</v>
+      <c r="L10" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -1728,27 +2174,27 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -1757,17 +2203,15 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -1776,17 +2220,15 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -1795,17 +2237,15 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -1814,17 +2254,15 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -1833,26 +2271,24 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
@@ -1861,33 +2297,33 @@
       <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="12"/>
-      <c r="L19" s="43"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="9"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="3:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="12"/>
-      <c r="L20" s="44"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="9"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="3:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1922,7 +2358,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B4:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1974,143 +2410,143 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>179</v>
+      <c r="F5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>210</v>
+      <c r="K5" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>181</v>
+      <c r="D6" s="36"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>49</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>211</v>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>219</v>
+      <c r="K7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>233</v>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>229</v>
+      <c r="K8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>182</v>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
@@ -2118,30 +2554,30 @@
       <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>212</v>
+      <c r="K9" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>234</v>
+      <c r="D10" s="36"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>23</v>
@@ -2149,30 +2585,30 @@
       <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>213</v>
+      <c r="K10" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>223</v>
+      <c r="F11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
@@ -2180,32 +2616,32 @@
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>224</v>
+      <c r="K11" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>217</v>
+      <c r="F12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>23</v>
@@ -2213,61 +2649,61 @@
       <c r="J12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>218</v>
+      <c r="K12" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>183</v>
+      <c r="F13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="14" t="s">
-        <v>184</v>
+      <c r="L13" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>185</v>
+      <c r="C14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>23</v>
@@ -2276,25 +2712,25 @@
         <v>28</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="35"/>
+      <c r="C15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="36"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>180</v>
+      <c r="F15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>23</v>
@@ -2303,101 +2739,101 @@
         <v>27</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2406,33 +2842,33 @@
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="13"/>
-      <c r="L23" s="43"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="10"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="13"/>
-      <c r="L24" s="46"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="10"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2472,17 +2908,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:L36"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A4:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="66.875" customWidth="1"/>
     <col min="8" max="8" width="52.25" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
@@ -2523,496 +2960,1026 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>236</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="5"/>
+      <c r="L7" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="5" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="K13" s="5"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+      <c r="C23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D25" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="5" t="s">
+    </row>
+    <row r="26" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>201</v>
-      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+  <mergeCells count="9">
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="E5:E15"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D5:D23"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E23"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I23" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{3D635968-99D3-4773-9990-965756E99FB5}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{6375C852-66A4-45D5-BA3F-BDE46F66EAC5}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{853A20CA-8295-4C30-A1F7-03D79C91B9E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFBB317-B39B-4769-895E-465FF52B407B}">
-  <dimension ref="A4:L34"/>
+  <dimension ref="A4:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="57.5" customWidth="1"/>
+    <col min="8" max="8" width="52.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22" xr:uid="{83100957-7132-4F65-A63D-A8C3F041C221}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22" xr:uid="{D587225C-0FE1-4303-A9AC-9C3DABB38B9C}">
+      <formula1>"Pass, Fail, N/A, No Run"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{FDDB294F-6FFB-4C8E-A1DE-15740638FB5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730FFA4-3C29-42D1-9EB9-FB2B865ADDF5}">
+  <dimension ref="A4:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
     <col min="7" max="7" width="66.875" customWidth="1"/>
     <col min="8" max="8" width="52.25" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
@@ -3052,969 +4019,471 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="I7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="5"/>
+      <c r="L8" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="5"/>
+      <c r="L9" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="I10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="I11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="41"/>
+      <c r="C13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="42"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="17"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
+      <c r="C14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
+      <c r="C15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
+      <c r="C16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
+      <c r="C17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
+      <c r="C18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
+      <c r="C19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
+      <c r="C20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
+      <c r="C21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
+      <c r="C22" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>195</v>
-      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D5:D22"/>
-    <mergeCell ref="E5:E15"/>
-    <mergeCell ref="E16:E22"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22" xr:uid="{83100957-7132-4F65-A63D-A8C3F041C221}">
-      <formula1>"High, Medium, Low"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22" xr:uid="{D587225C-0FE1-4303-A9AC-9C3DABB38B9C}">
-      <formula1>"Pass, Fail, N/A, No Run"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730FFA4-3C29-42D1-9EB9-FB2B865ADDF5}">
-  <dimension ref="A4:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="66.875" customWidth="1"/>
-    <col min="8" max="8" width="52.25" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="44.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="E5:E15"/>
-    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -4025,19 +4494,26 @@
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{7AE63B3C-692D-431A-BE6C-F29D01AC7D81}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{37D988C8-AADD-4992-8393-0896DFF50BD4}"/>
+    <hyperlink ref="K11" r:id="rId3" xr:uid="{04387D61-421D-4BDE-BE48-4462407BBB95}"/>
+    <hyperlink ref="K12" r:id="rId4" xr:uid="{8DC1F281-4A2A-4A53-B31C-4EB6DA082BC6}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{599620CA-DB0B-4932-AFD4-C5D4B75885DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:K36"/>
+  <dimension ref="A5:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32:B36"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4048,7 +4524,7 @@
     <col min="6" max="6" width="80.625" customWidth="1"/>
     <col min="7" max="7" width="95.625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="7" customWidth="1"/>
     <col min="11" max="11" width="130.625" customWidth="1"/>
     <col min="12" max="15" width="71.375" customWidth="1"/>
   </cols>
@@ -4093,13 +4569,23 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>331</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
@@ -4114,19 +4600,29 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>339</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -4135,16 +4631,22 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>333</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4156,13 +4658,19 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>335</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>28</v>
@@ -4177,16 +4685,24 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>337</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4198,40 +4714,60 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>335</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>350</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -4240,16 +4776,22 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>343</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4261,16 +4803,26 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>345</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4282,16 +4834,22 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>347</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -4303,17 +4861,13 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
@@ -4324,17 +4878,13 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -4345,17 +4895,13 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
@@ -4366,17 +4912,13 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
@@ -4387,18 +4929,14 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="14"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4408,19 +4946,15 @@
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="30"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -4429,108 +4963,104 @@
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="5" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C25:D25"/>
+  <mergeCells count="12">
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{8A5D19BF-87C4-4F0E-873A-33D8C8B30EA3}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{DACD74AE-214D-450F-9822-8D2ACCDE8BCE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>